--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\Scripts\API_TEST_FRAME\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B7F04-AAE4-4A94-8E0B-C3AC9CC5C4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138CCFE-B158-41D5-B932-31F7C3DBEDA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22512" yWindow="588" windowWidth="23976" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="495" windowWidth="28185" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -85,100 +85,208 @@
     <t>/cgi-bin/token</t>
   </si>
   <si>
-    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
     <t>json键是否存在</t>
   </si>
   <si>
+    <t>测试能否正确新增用户标签</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>json取值</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
+  </si>
+  <si>
+    <t>step_02</t>
+  </si>
+  <si>
+    <t>创建标签接口</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"tag" : {"name" : "衡东8888"}}</t>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/delete</t>
+  </si>
+  <si>
+    <t>{"tag":{"id":408}}</t>
+  </si>
+  <si>
+    <t>json键值对</t>
+  </si>
+  <si>
+    <t>{"errcode":0,"errmsg":"ok"}</t>
+  </si>
+  <si>
+    <t>access_token,expires_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.access_token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>case02</t>
-  </si>
-  <si>
-    <t>测试能否正确新增用户标签</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>json取值</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>正则匹配</t>
-  </si>
-  <si>
-    <t>{"access_token":"(.+?)","expires_in":(.+?)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正确删除用户标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标签接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正确获取公众号已创建的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>step_02</t>
-  </si>
-  <si>
-    <t>创建标签接口</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/create</t>
-  </si>
-  <si>
-    <t>{"access_token":${token}}</t>
-  </si>
-  <si>
-    <t>{"tag" : {"name" : "衡东8888"}}</t>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"衡东8888"}}</t>
-  </si>
-  <si>
-    <t>case03</t>
-  </si>
-  <si>
-    <t>测试能否正确删除用户标签</t>
-  </si>
-  <si>
-    <t>删除标签接口</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/delete</t>
-  </si>
-  <si>
-    <t>{"tag":{"id":408}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取公众号已创建的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正确编辑标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":100,"name":"20200729"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>json键值对</t>
-  </si>
-  <si>
-    <t>{"errcode":0,"errmsg":"ok"}</t>
-  </si>
-  <si>
-    <t>access_token,expires_in</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.access_token</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正确获取标签下粉丝列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取标签下粉丝列表接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑标签接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/user/tag/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"tagid":100,"next_openid":""} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否正确获取用户身上的标签列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户身上的标签列表接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"openid":"oWa_Bv6sIrpGO4GEQlREDQRI4BAo"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagid_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/getidlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cgi-bin/token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wxb9013645f9c6f66b","secret":"8c80367d3fac3cb6d3dc910fe6416436"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -222,17 +330,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,22 +642,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="35.125" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="59" customWidth="1"/>
     <col min="9" max="9" width="26.375" customWidth="1"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
@@ -534,7 +666,7 @@
     <col min="14" max="14" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -600,28 +732,28 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -635,65 +767,65 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="N4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
@@ -708,81 +840,376 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s">
+      <c r="M8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="H8" s="1"/>
+      <c r="N12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3:F4 F5:F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"get,post"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3:J4 J5:J6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"无,正则取值,json取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M6" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M14" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C3" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C3 C7 C9 C11 C13" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
